--- a/text/画面定義書_M0001購入依頼登録画面.xlsx
+++ b/text/画面定義書_M0001購入依頼登録画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7907D914-B04F-447A-93C1-E54EEB7A68B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC713799-4F2A-4066-B318-D1B2B9728A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -935,80 +935,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2734235</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>125505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>564776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9C1382-6225-E6AD-EC14-53CA221A54B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8426823" y="466164"/>
-          <a:ext cx="3110753" cy="1344706"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -82792"/>
-            <a:gd name="adj2" fmla="val 31833"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>この一覧は表示のメッセージでしょうか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-            <a:t>ログアウトのボダンでしょうか？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1301,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1652,7 +1578,7 @@
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:L17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1889,7 +1815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
